--- a/biology/Botanique/Mitragyna_inermis/Mitragyna_inermis.xlsx
+++ b/biology/Botanique/Mitragyna_inermis/Mitragyna_inermis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mitragyna inermis est une espèce de plantes de la famille des Rubiaceae et du genre Mitragyna, présente en Afrique de l'Ouest et du Centre.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste de 3 à 14 m de hauteur, avec un fût allant jusqu'à 60 cm de diamètre et des fleurs blanches[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste de 3 à 14 m de hauteur, avec un fût allant jusqu'à 60 cm de diamètre et des fleurs blanches,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente en Afrique tropicale, du Sénégal au Cameroun, en république centrafricaine, au Tchad, en république démocratique du Congo, au Soudan[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en Afrique tropicale, du Sénégal au Cameroun, en république centrafricaine, au Tchad, en république démocratique du Congo, au Soudan.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la rencontre dans les savanes, les forêts, les galeries forestières[2], les marécages, les endroits inondés temporairement ou non, à l'intérieur des terres au bord des mangroves[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la rencontre dans les savanes, les forêts, les galeries forestières, les marécages, les endroits inondés temporairement ou non, à l'intérieur des terres au bord des mangroves.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mitragyna inermis est utilisée en médecine traditionnelle dans le traitement de nombreuses affections[4]. En particulier, les feuilles et l'écorce sont employés pour lutter contre la fièvre. Avec différentes parties de la plante on traite aussi : constipation, troubles digestifs, dysenterie, rhumatismes, paludisme, gonorrhée, syphilis, lèpre, bilharziose, jaunisse, troubles mentaux, épilepsie [3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mitragyna inermis est utilisée en médecine traditionnelle dans le traitement de nombreuses affections. En particulier, les feuilles et l'écorce sont employés pour lutter contre la fièvre. Avec différentes parties de la plante on traite aussi : constipation, troubles digestifs, dysenterie, rhumatismes, paludisme, gonorrhée, syphilis, lèpre, bilharziose, jaunisse, troubles mentaux, épilepsie .
 </t>
         </is>
       </c>
